--- a/FRSH.xlsx
+++ b/FRSH.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C736505-1DD4-2042-9DDE-9D2E3FD8A9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E7AA95-719E-4443-8E5E-4E4D9F2B178F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19700" yWindow="-21080" windowWidth="17480" windowHeight="20240" activeTab="1" xr2:uid="{8C9A2681-AF0E-D043-B5D1-DB187ECBB0C2}"/>
+    <workbookView xWindow="-40050" yWindow="1635" windowWidth="28230" windowHeight="17955" xr2:uid="{8C9A2681-AF0E-D043-B5D1-DB187ECBB0C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -279,7 +279,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -368,7 +368,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{28876944-47EE-4B06-A8F4-23DB04DF7749}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -804,20 +806,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCE21FD-1334-144F-943D-2E5AC06CE83A}">
   <dimension ref="B2:I17"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="7.33203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.875" style="1"/>
+    <col min="7" max="7" width="7.375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>62</v>
       </c>
@@ -831,7 +833,7 @@
         <v>11.27</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>64</v>
       </c>
@@ -849,7 +851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>66</v>
       </c>
@@ -864,7 +866,7 @@
         <v>3404.5633610799996</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>68</v>
       </c>
@@ -879,7 +881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G6" s="1" t="s">
         <v>4</v>
       </c>
@@ -890,7 +892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>69</v>
       </c>
@@ -902,7 +904,7 @@
         <v>2385.4493610799996</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G9" s="1" t="s">
         <v>7</v>
       </c>
@@ -910,7 +912,7 @@
         <v>4800.143</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G10" s="1" t="s">
         <v>8</v>
       </c>
@@ -918,17 +920,17 @@
         <v>3684.018</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G13" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G16" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G17" s="1" t="s">
         <v>73</v>
       </c>
@@ -942,31 +944,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D93C24-26BA-B645-BEB9-516A7265FC21}">
   <dimension ref="A1:BY55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AB5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
     <col min="3" max="14" width="7.5" style="3" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="1"/>
+    <col min="15" max="15" width="10.875" style="1"/>
     <col min="16" max="21" width="7.5" style="1" customWidth="1"/>
     <col min="22" max="27" width="8" style="1" customWidth="1"/>
-    <col min="28" max="32" width="7.83203125" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="10.83203125" style="1"/>
+    <col min="28" max="32" width="7.875" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1066,7 +1068,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>71</v>
       </c>
@@ -1080,7 +1082,7 @@
         <v>20261</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>70</v>
       </c>
@@ -1089,7 +1091,7 @@
       </c>
       <c r="U4" s="2"/>
     </row>
-    <row r="6" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
@@ -1164,7 +1166,7 @@
         <v>1362.9166156799995</v>
       </c>
       <c r="Z6" s="6">
-        <f t="shared" ref="Z6:AB6" si="1">+Y6*1.15</f>
+        <f t="shared" ref="Z6:AA6" si="1">+Y6*1.15</f>
         <v>1567.3541080319992</v>
       </c>
       <c r="AA6" s="6">
@@ -1192,7 +1194,7 @@
         <v>2902.875384205608</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
@@ -1251,86 +1253,86 @@
         <v>114.28791200000001</v>
       </c>
       <c r="V7" s="2">
-        <f>+V6-V8</f>
+        <f t="shared" ref="V7:AA7" si="3">+V6-V8</f>
         <v>128.82009600000004</v>
       </c>
       <c r="W7" s="2">
-        <f>+W6-W8</f>
+        <f t="shared" si="3"/>
         <v>154.58411520000004</v>
       </c>
       <c r="X7" s="2">
-        <f>+X6-X8</f>
+        <f t="shared" si="3"/>
         <v>177.77173247999997</v>
       </c>
       <c r="Y7" s="2">
-        <f>+Y6-Y8</f>
+        <f t="shared" si="3"/>
         <v>204.43749235199994</v>
       </c>
       <c r="Z7" s="2">
-        <f>+Z6-Z8</f>
+        <f t="shared" si="3"/>
         <v>235.10311620480002</v>
       </c>
       <c r="AA7" s="2">
-        <f>+AA6-AA8</f>
+        <f t="shared" si="3"/>
         <v>270.36858363551983</v>
       </c>
       <c r="AB7" s="2">
-        <f t="shared" ref="AB7:AF7" si="3">+AB6-AB8</f>
+        <f t="shared" ref="AB7" si="4">+AB6-AB8</f>
         <v>297.40544199907185</v>
       </c>
       <c r="AC7" s="2">
-        <f t="shared" ref="AC7" si="4">+AC6-AC8</f>
+        <f t="shared" ref="AC7" si="5">+AC6-AC8</f>
         <v>327.14598619897902</v>
       </c>
       <c r="AD7" s="2">
-        <f t="shared" ref="AD7" si="5">+AD6-AD8</f>
+        <f t="shared" ref="AD7" si="6">+AD6-AD8</f>
         <v>359.86058481887699</v>
       </c>
       <c r="AE7" s="2">
-        <f t="shared" ref="AE7" si="6">+AE6-AE8</f>
+        <f t="shared" ref="AE7" si="7">+AE6-AE8</f>
         <v>395.84664330076475</v>
       </c>
       <c r="AF7" s="2">
-        <f t="shared" ref="AF7" si="7">+AF6-AF8</f>
+        <f t="shared" ref="AF7" si="8">+AF6-AF8</f>
         <v>435.43130763084127</v>
       </c>
     </row>
-    <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5">
-        <f>+E6-E7</f>
+        <f t="shared" ref="E8:L8" si="9">+E6-E7</f>
         <v>104.58099999999999</v>
       </c>
       <c r="F8" s="5">
-        <f>+F6-F7</f>
+        <f t="shared" si="9"/>
         <v>108.01399999999998</v>
       </c>
       <c r="G8" s="5">
-        <f>+G6-G7</f>
+        <f t="shared" si="9"/>
         <v>112.456</v>
       </c>
       <c r="H8" s="5">
-        <f>+H6-H7</f>
+        <f t="shared" si="9"/>
         <v>120.218</v>
       </c>
       <c r="I8" s="5">
-        <f>+I6-I7</f>
+        <f t="shared" si="9"/>
         <v>127.28700000000001</v>
       </c>
       <c r="J8" s="5">
-        <f>+J6-J7</f>
+        <f t="shared" si="9"/>
         <v>133.10199999999998</v>
       </c>
       <c r="K8" s="5">
-        <f>+K6-K7</f>
+        <f t="shared" si="9"/>
         <v>139.25299999999999</v>
       </c>
       <c r="L8" s="5">
-        <f>+L6-L7</f>
+        <f t="shared" si="9"/>
         <v>145.95599999999999</v>
       </c>
       <c r="M8" s="5">
@@ -1342,75 +1344,75 @@
         <v>161.39188799999999</v>
       </c>
       <c r="P8" s="2">
-        <f>+P6-P7</f>
+        <f t="shared" ref="P8:U8" si="10">+P6-P7</f>
         <v>135.91500000000002</v>
       </c>
       <c r="Q8" s="2">
-        <f>+Q6-Q7</f>
+        <f t="shared" si="10"/>
         <v>197.167</v>
       </c>
       <c r="R8" s="2">
-        <f>+R6-R7</f>
+        <f t="shared" si="10"/>
         <v>292.97000000000003</v>
       </c>
       <c r="S8" s="2">
-        <f>+S6-S7</f>
+        <f t="shared" si="10"/>
         <v>402.22800000000001</v>
       </c>
       <c r="T8" s="2">
-        <f>+T6-T7</f>
+        <f t="shared" si="10"/>
         <v>493.06299999999999</v>
       </c>
       <c r="U8" s="2">
-        <f>+U6-U7</f>
+        <f t="shared" si="10"/>
         <v>601.37928799999997</v>
       </c>
       <c r="V8" s="2">
-        <f>+V6*0.85</f>
+        <f t="shared" ref="V8:AA8" si="11">+V6*0.85</f>
         <v>729.9805439999999</v>
       </c>
       <c r="W8" s="2">
-        <f>+W6*0.85</f>
+        <f t="shared" si="11"/>
         <v>875.97665279999978</v>
       </c>
       <c r="X8" s="2">
-        <f>+X6*0.85</f>
+        <f t="shared" si="11"/>
         <v>1007.3731507199997</v>
       </c>
       <c r="Y8" s="2">
-        <f>+Y6*0.85</f>
+        <f t="shared" si="11"/>
         <v>1158.4791233279996</v>
       </c>
       <c r="Z8" s="2">
-        <f>+Z6*0.85</f>
+        <f t="shared" si="11"/>
         <v>1332.2509918271992</v>
       </c>
       <c r="AA8" s="2">
-        <f>+AA6*0.85</f>
+        <f t="shared" si="11"/>
         <v>1532.0886406012792</v>
       </c>
       <c r="AB8" s="2">
-        <f t="shared" ref="AB8:AF8" si="8">+AB6*0.85</f>
+        <f t="shared" ref="AB8" si="12">+AB6*0.85</f>
         <v>1685.2975046614072</v>
       </c>
       <c r="AC8" s="2">
-        <f t="shared" ref="AC8:AF8" si="9">+AC6*0.85</f>
+        <f t="shared" ref="AC8:AF8" si="13">+AC6*0.85</f>
         <v>1853.8272551275479</v>
       </c>
       <c r="AD8" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2039.2099806403028</v>
       </c>
       <c r="AE8" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2243.1309787043333</v>
       </c>
       <c r="AF8" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2467.4440765747668</v>
       </c>
     </row>
-    <row r="9" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
@@ -1461,11 +1463,11 @@
         <v>135.54300000000001</v>
       </c>
       <c r="T9" s="2">
-        <f t="shared" ref="T9:T11" si="10">SUM(G9:J9)</f>
+        <f t="shared" ref="T9:T11" si="14">SUM(G9:J9)</f>
         <v>137.756</v>
       </c>
       <c r="U9" s="2">
-        <f t="shared" ref="U9:U11" si="11">SUM(K9:N9)</f>
+        <f t="shared" ref="U9:U11" si="15">SUM(K9:N9)</f>
         <v>157.66299999999998</v>
       </c>
       <c r="V9" s="2">
@@ -1493,27 +1495,27 @@
         <v>221.34461798728125</v>
       </c>
       <c r="AB9" s="2">
-        <f t="shared" ref="AB9:AF9" si="12">+AA9*1.05</f>
+        <f t="shared" ref="AB9" si="16">+AA9*1.05</f>
         <v>232.41184888664532</v>
       </c>
       <c r="AC9" s="2">
-        <f t="shared" ref="AC9:AF9" si="13">+AB9*1.05</f>
+        <f t="shared" ref="AC9:AF9" si="17">+AB9*1.05</f>
         <v>244.0324413309776</v>
       </c>
       <c r="AD9" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>256.23406339752648</v>
       </c>
       <c r="AE9" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>269.04576656740284</v>
       </c>
       <c r="AF9" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>282.49805489577301</v>
       </c>
     </row>
-    <row r="10" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1564,7 +1566,7 @@
         <v>343.20699999999999</v>
       </c>
       <c r="T10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>357.78099999999995</v>
       </c>
       <c r="U10" s="2">
@@ -1576,11 +1578,11 @@
         <v>413.23570999999998</v>
       </c>
       <c r="W10" s="2">
-        <f t="shared" ref="W10:AA10" si="14">+V10*1.15</f>
+        <f t="shared" ref="W10:X10" si="18">+V10*1.15</f>
         <v>475.22106649999995</v>
       </c>
       <c r="X10" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>546.50422647499988</v>
       </c>
       <c r="Y10" s="2">
@@ -1616,7 +1618,7 @@
         <v>972.57132742241629</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1667,11 +1669,11 @@
         <v>156.84899999999999</v>
       </c>
       <c r="T11" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>167.69799999999998</v>
       </c>
       <c r="U11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>175.60000000000002</v>
       </c>
       <c r="V11" s="2">
@@ -1683,86 +1685,86 @@
         <v>202.81800000000007</v>
       </c>
       <c r="X11" s="2">
-        <f t="shared" ref="X11:AA11" si="15">+W11*1.05</f>
+        <f t="shared" ref="X11:AA11" si="19">+W11*1.05</f>
         <v>212.95890000000009</v>
       </c>
       <c r="Y11" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>223.60684500000011</v>
       </c>
       <c r="Z11" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>234.78718725000013</v>
       </c>
       <c r="AA11" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>246.52654661250014</v>
       </c>
       <c r="AB11" s="2">
-        <f t="shared" ref="AB11:AF11" si="16">+AA11*1.05</f>
+        <f t="shared" ref="AB11" si="20">+AA11*1.05</f>
         <v>258.85287394312513</v>
       </c>
       <c r="AC11" s="2">
-        <f t="shared" ref="AC11:AF11" si="17">+AB11*1.05</f>
+        <f t="shared" ref="AC11:AF11" si="21">+AB11*1.05</f>
         <v>271.79551764028139</v>
       </c>
       <c r="AD11" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>285.38529352229546</v>
       </c>
       <c r="AE11" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>299.65455819841026</v>
       </c>
       <c r="AF11" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>314.63728610833078</v>
       </c>
     </row>
-    <row r="12" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5">
-        <f>SUM(E9:E11)</f>
+        <f t="shared" ref="E12:L12" si="22">SUM(E9:E11)</f>
         <v>162.869</v>
       </c>
       <c r="F12" s="5">
-        <f>SUM(F9:F11)</f>
+        <f t="shared" si="22"/>
         <v>168.62199999999999</v>
       </c>
       <c r="G12" s="5">
-        <f>SUM(G9:G11)</f>
+        <f t="shared" si="22"/>
         <v>160.56299999999999</v>
       </c>
       <c r="H12" s="5">
-        <f>SUM(H9:H11)</f>
+        <f t="shared" si="22"/>
         <v>163.50700000000001</v>
       </c>
       <c r="I12" s="5">
-        <f>SUM(I9:I11)</f>
+        <f t="shared" si="22"/>
         <v>166.02199999999999</v>
       </c>
       <c r="J12" s="5">
-        <f>SUM(J9:J11)</f>
+        <f t="shared" si="22"/>
         <v>173.14299999999997</v>
       </c>
       <c r="K12" s="5">
-        <f>SUM(K9:K11)</f>
+        <f t="shared" si="22"/>
         <v>171.42</v>
       </c>
       <c r="L12" s="5">
-        <f>SUM(L9:L11)</f>
+        <f t="shared" si="22"/>
         <v>189.74300000000002</v>
       </c>
       <c r="M12" s="5">
-        <f t="shared" ref="M12:N12" si="18">SUM(M9:M11)</f>
+        <f t="shared" ref="M12:N12" si="23">SUM(M9:M11)</f>
         <v>189.76895000000002</v>
       </c>
       <c r="N12" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>191.66645</v>
       </c>
       <c r="P12" s="2">
@@ -1786,98 +1788,98 @@
         <v>663.2349999999999</v>
       </c>
       <c r="U12" s="2">
-        <f t="shared" ref="U12" si="19">SUM(U9:U11)</f>
+        <f t="shared" ref="U12" si="24">SUM(U9:U11)</f>
         <v>692.59839999999997</v>
       </c>
       <c r="V12" s="2">
-        <f t="shared" ref="V12" si="20">SUM(V9:V11)</f>
+        <f t="shared" ref="V12" si="25">SUM(V9:V11)</f>
         <v>779.82501000000002</v>
       </c>
       <c r="W12" s="2">
-        <f t="shared" ref="W12" si="21">SUM(W9:W11)</f>
+        <f t="shared" ref="W12" si="26">SUM(W9:W11)</f>
         <v>860.13983150000001</v>
       </c>
       <c r="X12" s="2">
-        <f t="shared" ref="X12" si="22">SUM(X9:X11)</f>
+        <f t="shared" ref="X12" si="27">SUM(X9:X11)</f>
         <v>950.668929725</v>
       </c>
       <c r="Y12" s="2">
-        <f t="shared" ref="Y12" si="23">SUM(Y9:Y11)</f>
+        <f t="shared" ref="Y12" si="28">SUM(Y9:Y11)</f>
         <v>1025.5275875350001</v>
       </c>
       <c r="Z12" s="2">
-        <f t="shared" ref="Z12" si="24">SUM(Z9:Z11)</f>
+        <f t="shared" ref="Z12" si="29">SUM(Z9:Z11)</f>
         <v>1106.861699367875</v>
       </c>
       <c r="AA12" s="2">
-        <f t="shared" ref="AA12" si="25">SUM(AA9:AA11)</f>
+        <f t="shared" ref="AA12" si="30">SUM(AA9:AA11)</f>
         <v>1195.2682900380064</v>
       </c>
       <c r="AB12" s="2">
-        <f t="shared" ref="AB12" si="26">SUM(AB9:AB11)</f>
+        <f t="shared" ref="AB12" si="31">SUM(AB9:AB11)</f>
         <v>1291.4015608118179</v>
       </c>
       <c r="AC12" s="2">
-        <f t="shared" ref="AC12" si="27">SUM(AC9:AC11)</f>
+        <f t="shared" ref="AC12" si="32">SUM(AC9:AC11)</f>
         <v>1355.9716388524089</v>
       </c>
       <c r="AD12" s="2">
-        <f t="shared" ref="AD12" si="28">SUM(AD9:AD11)</f>
+        <f t="shared" ref="AD12" si="33">SUM(AD9:AD11)</f>
         <v>1423.7702207950292</v>
       </c>
       <c r="AE12" s="2">
-        <f t="shared" ref="AE12" si="29">SUM(AE9:AE11)</f>
+        <f t="shared" ref="AE12" si="34">SUM(AE9:AE11)</f>
         <v>1494.958731834781</v>
       </c>
       <c r="AF12" s="2">
-        <f t="shared" ref="AF12" si="30">SUM(AF9:AF11)</f>
+        <f t="shared" ref="AF12" si="35">SUM(AF9:AF11)</f>
         <v>1569.7066684265201</v>
       </c>
     </row>
-    <row r="13" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5">
-        <f>E8-E12</f>
+        <f t="shared" ref="E13:L13" si="36">E8-E12</f>
         <v>-58.288000000000011</v>
       </c>
       <c r="F13" s="5">
-        <f>F8-F12</f>
+        <f t="shared" si="36"/>
         <v>-60.608000000000004</v>
       </c>
       <c r="G13" s="5">
-        <f>G8-G12</f>
+        <f t="shared" si="36"/>
         <v>-48.106999999999985</v>
       </c>
       <c r="H13" s="5">
-        <f>H8-H12</f>
+        <f t="shared" si="36"/>
         <v>-43.289000000000001</v>
       </c>
       <c r="I13" s="5">
-        <f>I8-I12</f>
+        <f t="shared" si="36"/>
         <v>-38.734999999999985</v>
       </c>
       <c r="J13" s="5">
-        <f>J8-J12</f>
+        <f t="shared" si="36"/>
         <v>-40.040999999999997</v>
       </c>
       <c r="K13" s="5">
-        <f>K8-K12</f>
+        <f t="shared" si="36"/>
         <v>-32.167000000000002</v>
       </c>
       <c r="L13" s="5">
-        <f>L8-L12</f>
+        <f t="shared" si="36"/>
         <v>-43.787000000000035</v>
       </c>
       <c r="M13" s="5">
-        <f t="shared" ref="M13:N13" si="31">M8-M12</f>
+        <f t="shared" ref="M13:N13" si="37">M8-M12</f>
         <v>-34.990550000000013</v>
       </c>
       <c r="N13" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>-30.274562000000003</v>
       </c>
       <c r="P13" s="2">
@@ -1901,11 +1903,11 @@
         <v>-170.17199999999991</v>
       </c>
       <c r="U13" s="2">
-        <f t="shared" ref="U13" si="32">+U8-U12</f>
+        <f t="shared" ref="U13" si="38">+U8-U12</f>
         <v>-91.219111999999996</v>
       </c>
       <c r="V13" s="2">
-        <f t="shared" ref="V13" si="33">+V8-V12</f>
+        <f t="shared" ref="V13" si="39">+V8-V12</f>
         <v>-49.844466000000125</v>
       </c>
       <c r="W13" s="2">
@@ -1913,43 +1915,43 @@
         <v>15.83682129999977</v>
       </c>
       <c r="X13" s="2">
-        <f t="shared" ref="X13" si="34">+X8-X12</f>
+        <f t="shared" ref="X13" si="40">+X8-X12</f>
         <v>56.704220994999673</v>
       </c>
       <c r="Y13" s="2">
-        <f t="shared" ref="Y13" si="35">+Y8-Y12</f>
+        <f t="shared" ref="Y13" si="41">+Y8-Y12</f>
         <v>132.95153579299949</v>
       </c>
       <c r="Z13" s="2">
-        <f t="shared" ref="Z13" si="36">+Z8-Z12</f>
+        <f t="shared" ref="Z13" si="42">+Z8-Z12</f>
         <v>225.38929245932422</v>
       </c>
       <c r="AA13" s="2">
-        <f t="shared" ref="AA13" si="37">+AA8-AA12</f>
+        <f t="shared" ref="AA13" si="43">+AA8-AA12</f>
         <v>336.82035056327277</v>
       </c>
       <c r="AB13" s="2">
-        <f t="shared" ref="AB13" si="38">+AB8-AB12</f>
+        <f t="shared" ref="AB13" si="44">+AB8-AB12</f>
         <v>393.89594384958923</v>
       </c>
       <c r="AC13" s="2">
-        <f t="shared" ref="AC13" si="39">+AC8-AC12</f>
+        <f t="shared" ref="AC13" si="45">+AC8-AC12</f>
         <v>497.85561627513903</v>
       </c>
       <c r="AD13" s="2">
-        <f t="shared" ref="AD13" si="40">+AD8-AD12</f>
+        <f t="shared" ref="AD13" si="46">+AD8-AD12</f>
         <v>615.43975984527356</v>
       </c>
       <c r="AE13" s="2">
-        <f t="shared" ref="AE13" si="41">+AE8-AE12</f>
+        <f t="shared" ref="AE13" si="47">+AE8-AE12</f>
         <v>748.17224686955228</v>
       </c>
       <c r="AF13" s="2">
-        <f t="shared" ref="AF13" si="42">+AF8-AF12</f>
+        <f t="shared" ref="AF13" si="48">+AF8-AF12</f>
         <v>897.73740814824669</v>
       </c>
     </row>
-    <row r="14" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
@@ -2000,174 +2002,174 @@
         <v>12.582000000000001</v>
       </c>
       <c r="T14" s="2">
-        <f t="shared" ref="T14:T16" si="43">SUM(G14:J14)</f>
+        <f t="shared" ref="T14:T16" si="49">SUM(G14:J14)</f>
         <v>46.403000000000006</v>
       </c>
       <c r="U14" s="2">
-        <f t="shared" ref="U14:U16" si="44">SUM(K14:N14)</f>
+        <f t="shared" ref="U14:U16" si="50">SUM(K14:N14)</f>
         <v>52.536000000000001</v>
       </c>
       <c r="V14" s="2">
-        <f>+U24*$AD$29</f>
+        <f t="shared" ref="V14:AB14" si="51">+U24*$AD$29</f>
         <v>29.410286639999999</v>
       </c>
       <c r="W14" s="2">
-        <f>+V24*$AD$29</f>
+        <f t="shared" si="51"/>
         <v>28.919866335359998</v>
       </c>
       <c r="X14" s="2">
-        <f>+W24*$AD$29</f>
+        <f t="shared" si="51"/>
         <v>29.994026838608633</v>
       </c>
       <c r="Y14" s="2">
-        <f>+X24*$AD$29</f>
+        <f t="shared" si="51"/>
         <v>32.074784786615226</v>
       </c>
       <c r="Z14" s="2">
-        <f>+Y24*$AD$29</f>
+        <f t="shared" si="51"/>
         <v>36.035416480525981</v>
       </c>
       <c r="AA14" s="2">
-        <f>+Z24*$AD$29</f>
+        <f t="shared" si="51"/>
         <v>42.309609495082391</v>
       </c>
       <c r="AB14" s="2">
-        <f>+AA24*$AD$29</f>
+        <f t="shared" si="51"/>
         <v>51.408728536482911</v>
       </c>
       <c r="AC14" s="2">
-        <f t="shared" ref="AC14:AF14" si="45">+AB24*$AD$29</f>
+        <f t="shared" ref="AC14:AF14" si="52">+AB24*$AD$29</f>
         <v>62.096040673748639</v>
       </c>
       <c r="AD14" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>75.534880440521945</v>
       </c>
       <c r="AE14" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>92.118271807381049</v>
       </c>
       <c r="AF14" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>112.28524425562745</v>
       </c>
     </row>
-    <row r="15" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5">
-        <f>+E13+E14</f>
+        <f t="shared" ref="E15:L15" si="53">+E13+E14</f>
         <v>-56.039000000000009</v>
       </c>
       <c r="F15" s="5">
-        <f>+F13+F14</f>
+        <f t="shared" si="53"/>
         <v>-50.635000000000005</v>
       </c>
       <c r="G15" s="5">
-        <f>+G13+G14</f>
+        <f t="shared" si="53"/>
         <v>-38.627999999999986</v>
       </c>
       <c r="H15" s="5">
-        <f>+H13+H14</f>
+        <f t="shared" si="53"/>
         <v>-32.073</v>
       </c>
       <c r="I15" s="5">
-        <f>+I13+I14</f>
+        <f t="shared" si="53"/>
         <v>-27.741999999999983</v>
       </c>
       <c r="J15" s="5">
-        <f>+J13+J14</f>
+        <f t="shared" si="53"/>
         <v>-25.325999999999997</v>
       </c>
       <c r="K15" s="5">
-        <f>+K13+K14</f>
+        <f t="shared" si="53"/>
         <v>-19.372</v>
       </c>
       <c r="L15" s="5">
-        <f>+L13+L14</f>
+        <f t="shared" si="53"/>
         <v>-30.540000000000035</v>
       </c>
       <c r="M15" s="5">
-        <f t="shared" ref="M15:N15" si="46">+M13+M14</f>
+        <f t="shared" ref="M15:N15" si="54">+M13+M14</f>
         <v>-21.743550000000013</v>
       </c>
       <c r="N15" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>-17.027562000000003</v>
       </c>
       <c r="P15" s="2">
-        <f>+P13+P14</f>
+        <f t="shared" ref="P15:U15" si="55">+P13+P14</f>
         <v>-27.489999999999959</v>
       </c>
       <c r="Q15" s="2">
-        <f>+Q13+Q14</f>
+        <f t="shared" si="55"/>
         <v>-53.278999999999968</v>
       </c>
       <c r="R15" s="2">
-        <f>+R13+R14</f>
+        <f t="shared" si="55"/>
         <v>-181.50099999999998</v>
       </c>
       <c r="S15" s="2">
-        <f>+S13+S14</f>
+        <f t="shared" si="55"/>
         <v>-220.78899999999993</v>
       </c>
       <c r="T15" s="2">
-        <f>+T13+T14</f>
+        <f t="shared" si="55"/>
         <v>-123.76899999999991</v>
       </c>
       <c r="U15" s="2">
-        <f>+U13+U14</f>
+        <f t="shared" si="55"/>
         <v>-38.683111999999994</v>
       </c>
       <c r="V15" s="2">
-        <f t="shared" ref="V15:AA15" si="47">+V13+V14</f>
+        <f t="shared" ref="V15:AA15" si="56">+V13+V14</f>
         <v>-20.434179360000126</v>
       </c>
       <c r="W15" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>44.756687635359768</v>
       </c>
       <c r="X15" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>86.698247833608306</v>
       </c>
       <c r="Y15" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>165.02632057961472</v>
       </c>
       <c r="Z15" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>261.42470893985023</v>
       </c>
       <c r="AA15" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>379.12996005835515</v>
       </c>
       <c r="AB15" s="2">
-        <f t="shared" ref="AB15" si="48">+AB13+AB14</f>
+        <f t="shared" ref="AB15" si="57">+AB13+AB14</f>
         <v>445.30467238607213</v>
       </c>
       <c r="AC15" s="2">
-        <f t="shared" ref="AC15" si="49">+AC13+AC14</f>
+        <f t="shared" ref="AC15" si="58">+AC13+AC14</f>
         <v>559.95165694888772</v>
       </c>
       <c r="AD15" s="2">
-        <f t="shared" ref="AD15" si="50">+AD13+AD14</f>
+        <f t="shared" ref="AD15" si="59">+AD13+AD14</f>
         <v>690.97464028579554</v>
       </c>
       <c r="AE15" s="2">
-        <f t="shared" ref="AE15" si="51">+AE13+AE14</f>
+        <f t="shared" ref="AE15" si="60">+AE13+AE14</f>
         <v>840.29051867693329</v>
       </c>
       <c r="AF15" s="2">
-        <f t="shared" ref="AF15" si="52">+AF13+AF14</f>
+        <f t="shared" ref="AF15" si="61">+AF13+AF14</f>
         <v>1010.0226524038742</v>
       </c>
     </row>
-    <row r="16" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
@@ -2216,467 +2218,467 @@
         <v>11.342000000000001</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>13.666999999999998</v>
       </c>
       <c r="U16" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>-6.4030000000000005</v>
       </c>
       <c r="V16" s="2">
-        <f>+V15*0.2</f>
+        <f t="shared" ref="V16:AA16" si="62">+V15*0.2</f>
         <v>-4.0868358720000257</v>
       </c>
       <c r="W16" s="2">
-        <f>+W15*0.2</f>
+        <f t="shared" si="62"/>
         <v>8.9513375270719546</v>
       </c>
       <c r="X16" s="2">
-        <f>+X15*0.2</f>
+        <f t="shared" si="62"/>
         <v>17.339649566721661</v>
       </c>
       <c r="Y16" s="2">
-        <f>+Y15*0.2</f>
+        <f t="shared" si="62"/>
         <v>33.005264115922948</v>
       </c>
       <c r="Z16" s="2">
-        <f>+Z15*0.2</f>
+        <f t="shared" si="62"/>
         <v>52.284941787970048</v>
       </c>
       <c r="AA16" s="2">
-        <f>+AA15*0.2</f>
+        <f t="shared" si="62"/>
         <v>75.825992011671033</v>
       </c>
       <c r="AB16" s="2">
-        <f t="shared" ref="AB16:AF16" si="53">+AB15*0.2</f>
+        <f t="shared" ref="AB16" si="63">+AB15*0.2</f>
         <v>89.060934477214431</v>
       </c>
       <c r="AC16" s="2">
-        <f t="shared" ref="AC16" si="54">+AC15*0.2</f>
+        <f t="shared" ref="AC16" si="64">+AC15*0.2</f>
         <v>111.99033138977755</v>
       </c>
       <c r="AD16" s="2">
-        <f t="shared" ref="AD16" si="55">+AD15*0.2</f>
+        <f t="shared" ref="AD16" si="65">+AD15*0.2</f>
         <v>138.1949280571591</v>
       </c>
       <c r="AE16" s="2">
-        <f t="shared" ref="AE16" si="56">+AE15*0.2</f>
+        <f t="shared" ref="AE16" si="66">+AE15*0.2</f>
         <v>168.05810373538668</v>
       </c>
       <c r="AF16" s="2">
-        <f t="shared" ref="AF16" si="57">+AF15*0.2</f>
+        <f t="shared" ref="AF16" si="67">+AF15*0.2</f>
         <v>202.00453048077486</v>
       </c>
     </row>
-    <row r="17" spans="2:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:77" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5">
-        <f>+E15-E16</f>
+        <f t="shared" ref="E17:L17" si="68">+E15-E16</f>
         <v>-57.843000000000011</v>
       </c>
       <c r="F17" s="5">
-        <f>+F15-F16</f>
+        <f t="shared" si="68"/>
         <v>-55.477000000000004</v>
       </c>
       <c r="G17" s="5">
-        <f>+G15-G16</f>
+        <f t="shared" si="68"/>
         <v>-42.663999999999987</v>
       </c>
       <c r="H17" s="5">
-        <f>+H15-H16</f>
+        <f t="shared" si="68"/>
         <v>-35.658000000000001</v>
       </c>
       <c r="I17" s="5">
-        <f>+I15-I16</f>
+        <f t="shared" si="68"/>
         <v>-31.032999999999983</v>
       </c>
       <c r="J17" s="5">
-        <f>+J15-J16</f>
+        <f t="shared" si="68"/>
         <v>-28.080999999999996</v>
       </c>
       <c r="K17" s="5">
-        <f>+K15-K16</f>
+        <f t="shared" si="68"/>
         <v>-23.324999999999999</v>
       </c>
       <c r="L17" s="5">
-        <f>+L15-L16</f>
+        <f t="shared" si="68"/>
         <v>-20.184000000000033</v>
       </c>
       <c r="M17" s="5">
-        <f t="shared" ref="M17:N17" si="58">+M15-M16</f>
+        <f t="shared" ref="M17:N17" si="69">+M15-M16</f>
         <v>-21.743550000000013</v>
       </c>
       <c r="N17" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="69"/>
         <v>-17.027562000000003</v>
       </c>
       <c r="P17" s="2">
-        <f>+P15-P16</f>
+        <f t="shared" ref="P17:U17" si="70">+P15-P16</f>
         <v>-31.124999999999957</v>
       </c>
       <c r="Q17" s="2">
-        <f>+Q15-Q16</f>
+        <f t="shared" si="70"/>
         <v>-57.293999999999969</v>
       </c>
       <c r="R17" s="2">
-        <f>+R15-R16</f>
+        <f t="shared" si="70"/>
         <v>-192.01699999999997</v>
       </c>
       <c r="S17" s="2">
-        <f>+S15-S16</f>
+        <f t="shared" si="70"/>
         <v>-232.13099999999994</v>
       </c>
       <c r="T17" s="2">
-        <f>+T15-T16</f>
+        <f t="shared" si="70"/>
         <v>-137.43599999999989</v>
       </c>
       <c r="U17" s="2">
-        <f>+U15-U16</f>
+        <f t="shared" si="70"/>
         <v>-32.280111999999995</v>
       </c>
       <c r="V17" s="2">
-        <f t="shared" ref="V17:AA17" si="59">+V15-V16</f>
+        <f t="shared" ref="V17:AA17" si="71">+V15-V16</f>
         <v>-16.347343488000099</v>
       </c>
       <c r="W17" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>35.805350108287811</v>
       </c>
       <c r="X17" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>69.358598266886645</v>
       </c>
       <c r="Y17" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>132.02105646369176</v>
       </c>
       <c r="Z17" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>209.13976715188019</v>
       </c>
       <c r="AA17" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>303.30396804668413</v>
       </c>
       <c r="AB17" s="2">
-        <f t="shared" ref="AB17" si="60">+AB15-AB16</f>
+        <f t="shared" ref="AB17" si="72">+AB15-AB16</f>
         <v>356.24373790885772</v>
       </c>
       <c r="AC17" s="2">
-        <f t="shared" ref="AC17" si="61">+AC15-AC16</f>
+        <f t="shared" ref="AC17" si="73">+AC15-AC16</f>
         <v>447.96132555911015</v>
       </c>
       <c r="AD17" s="2">
-        <f t="shared" ref="AD17" si="62">+AD15-AD16</f>
+        <f t="shared" ref="AD17" si="74">+AD15-AD16</f>
         <v>552.77971222863641</v>
       </c>
       <c r="AE17" s="2">
-        <f t="shared" ref="AE17" si="63">+AE15-AE16</f>
+        <f t="shared" ref="AE17" si="75">+AE15-AE16</f>
         <v>672.23241494154661</v>
       </c>
       <c r="AF17" s="2">
-        <f t="shared" ref="AF17" si="64">+AF15-AF16</f>
+        <f t="shared" ref="AF17" si="76">+AF15-AF16</f>
         <v>808.01812192309933</v>
       </c>
       <c r="AG17" s="2">
-        <f>AF17*(1+$AD$27)</f>
+        <f t="shared" ref="AG17:BY17" si="77">AF17*(1+$AD$27)</f>
         <v>799.93794070386832</v>
       </c>
       <c r="AH17" s="2">
-        <f>AG17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>791.93856129682968</v>
       </c>
       <c r="AI17" s="2">
-        <f>AH17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>784.01917568386136</v>
       </c>
       <c r="AJ17" s="2">
-        <f>AI17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>776.17898392702273</v>
       </c>
       <c r="AK17" s="2">
-        <f>AJ17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>768.41719408775248</v>
       </c>
       <c r="AL17" s="2">
-        <f>AK17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>760.73302214687499</v>
       </c>
       <c r="AM17" s="2">
-        <f>AL17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>753.12569192540627</v>
       </c>
       <c r="AN17" s="2">
-        <f>AM17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>745.59443500615225</v>
       </c>
       <c r="AO17" s="2">
-        <f>AN17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>738.13849065609077</v>
       </c>
       <c r="AP17" s="2">
-        <f>AO17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>730.75710574952984</v>
       </c>
       <c r="AQ17" s="2">
-        <f>AP17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>723.44953469203449</v>
       </c>
       <c r="AR17" s="2">
-        <f>AQ17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>716.21503934511418</v>
       </c>
       <c r="AS17" s="2">
-        <f>AR17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>709.05288895166302</v>
       </c>
       <c r="AT17" s="2">
-        <f>AS17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>701.96236006214633</v>
       </c>
       <c r="AU17" s="2">
-        <f>AT17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>694.94273646152487</v>
       </c>
       <c r="AV17" s="2">
-        <f>AU17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>687.99330909690957</v>
       </c>
       <c r="AW17" s="2">
-        <f>AV17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>681.11337600594049</v>
       </c>
       <c r="AX17" s="2">
-        <f>AW17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>674.30224224588108</v>
       </c>
       <c r="AY17" s="2">
-        <f>AX17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>667.55921982342227</v>
       </c>
       <c r="AZ17" s="2">
-        <f>AY17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>660.88362762518807</v>
       </c>
       <c r="BA17" s="2">
-        <f>AZ17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>654.27479134893622</v>
       </c>
       <c r="BB17" s="2">
-        <f>BA17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>647.73204343544683</v>
       </c>
       <c r="BC17" s="2">
-        <f>BB17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>641.25472300109232</v>
       </c>
       <c r="BD17" s="2">
-        <f>BC17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>634.84217577108143</v>
       </c>
       <c r="BE17" s="2">
-        <f>BD17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>628.49375401337056</v>
       </c>
       <c r="BF17" s="2">
-        <f>BE17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>622.20881647323688</v>
       </c>
       <c r="BG17" s="2">
-        <f>BF17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>615.98672830850455</v>
       </c>
       <c r="BH17" s="2">
-        <f>BG17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>609.82686102541948</v>
       </c>
       <c r="BI17" s="2">
-        <f>BH17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>603.72859241516528</v>
       </c>
       <c r="BJ17" s="2">
-        <f>BI17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>597.69130649101362</v>
       </c>
       <c r="BK17" s="2">
-        <f>BJ17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>591.71439342610347</v>
       </c>
       <c r="BL17" s="2">
-        <f>BK17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>585.79724949184242</v>
       </c>
       <c r="BM17" s="2">
-        <f>BL17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>579.93927699692404</v>
       </c>
       <c r="BN17" s="2">
-        <f>BM17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>574.13988422695479</v>
       </c>
       <c r="BO17" s="2">
-        <f>BN17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>568.39848538468527</v>
       </c>
       <c r="BP17" s="2">
-        <f>BO17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>562.71450053083845</v>
       </c>
       <c r="BQ17" s="2">
-        <f>BP17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>557.08735552553003</v>
       </c>
       <c r="BR17" s="2">
-        <f>BQ17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>551.51648197027475</v>
       </c>
       <c r="BS17" s="2">
-        <f>BR17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>546.00131715057205</v>
       </c>
       <c r="BT17" s="2">
-        <f>BS17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>540.54130397906636</v>
       </c>
       <c r="BU17" s="2">
-        <f>BT17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>535.13589093927567</v>
       </c>
       <c r="BV17" s="2">
-        <f>BU17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>529.78453202988294</v>
       </c>
       <c r="BW17" s="2">
-        <f>BV17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>524.48668670958409</v>
       </c>
       <c r="BX17" s="2">
-        <f>BW17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>519.24181984248821</v>
       </c>
       <c r="BY17" s="2">
-        <f>BX17*(1+$AD$27)</f>
+        <f t="shared" si="77"/>
         <v>514.04940164406332</v>
       </c>
     </row>
-    <row r="18" spans="2:77" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="9">
-        <f>E17/E19</f>
+        <f t="shared" ref="E18:L18" si="78">E17/E19</f>
         <v>-0.20175655831766642</v>
       </c>
       <c r="F18" s="9">
-        <f>F17/F19</f>
+        <f t="shared" si="78"/>
         <v>-0.19232329255313618</v>
       </c>
       <c r="G18" s="9">
-        <f>G17/G19</f>
+        <f t="shared" si="78"/>
         <v>-0.14704980129802536</v>
       </c>
       <c r="H18" s="9">
-        <f>H17/H19</f>
+        <f t="shared" si="78"/>
         <v>-0.12211852942687375</v>
       </c>
       <c r="I18" s="9">
-        <f>I17/I19</f>
+        <f t="shared" si="78"/>
         <v>-0.10550202960434608</v>
       </c>
       <c r="J18" s="9">
-        <f>J17/J19</f>
+        <f t="shared" si="78"/>
         <v>-9.4867922743504238E-2</v>
       </c>
       <c r="K18" s="9">
-        <f>K17/K19</f>
+        <f t="shared" si="78"/>
         <v>-7.8305972404068891E-2</v>
       </c>
       <c r="L18" s="9">
-        <f>L17/L19</f>
+        <f t="shared" si="78"/>
         <v>-6.7323760444288894E-2</v>
       </c>
       <c r="M18" s="9">
-        <f t="shared" ref="M18:N18" si="65">M17/M19</f>
+        <f t="shared" ref="M18:N18" si="79">M17/M19</f>
         <v>-7.252564166708364E-2</v>
       </c>
       <c r="N18" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="79"/>
         <v>-5.6795457047080611E-2</v>
       </c>
       <c r="P18" s="4">
-        <f>P17/P19</f>
+        <f t="shared" ref="P18:U18" si="80">P17/P19</f>
         <v>-0.40938326165015926</v>
       </c>
       <c r="Q18" s="4">
-        <f>Q17/Q19</f>
+        <f t="shared" si="80"/>
         <v>-0.74460978621092955</v>
       </c>
       <c r="R18" s="4">
-        <f>R17/R19</f>
+        <f t="shared" si="80"/>
         <v>-1.4696828215411932</v>
       </c>
       <c r="S18" s="4">
-        <f>S17/S19</f>
+        <f t="shared" si="80"/>
         <v>-0.81567675262749162</v>
       </c>
       <c r="T18" s="4">
-        <f>T17/T19</f>
+        <f t="shared" si="80"/>
         <v>-0.46895481009148848</v>
       </c>
       <c r="U18" s="4">
-        <f>U17/U19</f>
+        <f t="shared" si="80"/>
         <v>-0.10784437122322586</v>
       </c>
       <c r="V18" s="4">
-        <f t="shared" ref="V18:AA18" si="66">V17/V19</f>
+        <f t="shared" ref="V18:AA18" si="81">V17/V19</f>
         <v>-5.4614710743056495E-2</v>
       </c>
       <c r="W18" s="4">
-        <f t="shared" si="66"/>
+        <f t="shared" si="81"/>
         <v>0.11962181137586392</v>
       </c>
       <c r="X18" s="4">
-        <f t="shared" si="66"/>
+        <f t="shared" si="81"/>
         <v>0.23171959313575846</v>
       </c>
       <c r="Y18" s="4">
-        <f t="shared" si="66"/>
+        <f t="shared" si="81"/>
         <v>0.44106810479941455</v>
       </c>
       <c r="Z18" s="4">
-        <f t="shared" si="66"/>
+        <f t="shared" si="81"/>
         <v>0.69871339623190865</v>
       </c>
       <c r="AA18" s="4">
-        <f t="shared" si="66"/>
+        <f t="shared" si="81"/>
         <v>1.0133058312655185</v>
       </c>
       <c r="AB18" s="4">
-        <f t="shared" ref="AB18" si="67">AB17/AB19</f>
+        <f t="shared" ref="AB18" si="82">AB17/AB19</f>
         <v>1.1901718902645826</v>
       </c>
       <c r="AC18" s="4">
-        <f t="shared" ref="AC18" si="68">AC17/AC19</f>
+        <f t="shared" ref="AC18" si="83">AC17/AC19</f>
         <v>1.4965904544335229</v>
       </c>
       <c r="AD18" s="4">
-        <f t="shared" ref="AD18" si="69">AD17/AD19</f>
+        <f t="shared" ref="AD18" si="84">AD17/AD19</f>
         <v>1.8467773745720906</v>
       </c>
       <c r="AE18" s="4">
-        <f t="shared" ref="AE18" si="70">AE17/AE19</f>
+        <f t="shared" ref="AE18" si="85">AE17/AE19</f>
         <v>2.2458559655939783</v>
       </c>
       <c r="AF18" s="4">
-        <f t="shared" ref="AF18" si="71">AF17/AF19</f>
+        <f t="shared" ref="AF18" si="86">AF17/AF19</f>
         <v>2.6995013615742258</v>
       </c>
     </row>
-    <row r="19" spans="2:77" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
@@ -2733,51 +2735,51 @@
         <v>299.32125000000002</v>
       </c>
       <c r="V19" s="2">
-        <f>+U19</f>
+        <f t="shared" ref="V19:AA19" si="87">+U19</f>
         <v>299.32125000000002</v>
       </c>
       <c r="W19" s="2">
-        <f>+V19</f>
+        <f t="shared" si="87"/>
         <v>299.32125000000002</v>
       </c>
       <c r="X19" s="2">
-        <f>+W19</f>
+        <f t="shared" si="87"/>
         <v>299.32125000000002</v>
       </c>
       <c r="Y19" s="2">
-        <f>+X19</f>
+        <f t="shared" si="87"/>
         <v>299.32125000000002</v>
       </c>
       <c r="Z19" s="2">
-        <f>+Y19</f>
+        <f t="shared" si="87"/>
         <v>299.32125000000002</v>
       </c>
       <c r="AA19" s="2">
-        <f>+Z19</f>
+        <f t="shared" si="87"/>
         <v>299.32125000000002</v>
       </c>
       <c r="AB19" s="2">
-        <f t="shared" ref="AB19:AF19" si="72">+AA19</f>
+        <f t="shared" ref="AB19" si="88">+AA19</f>
         <v>299.32125000000002</v>
       </c>
       <c r="AC19" s="2">
-        <f t="shared" ref="AC19:AF19" si="73">+AB19</f>
+        <f t="shared" ref="AC19:AF19" si="89">+AB19</f>
         <v>299.32125000000002</v>
       </c>
       <c r="AD19" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="89"/>
         <v>299.32125000000002</v>
       </c>
       <c r="AE19" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="89"/>
         <v>299.32125000000002</v>
       </c>
       <c r="AF19" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="89"/>
         <v>299.32125000000002</v>
       </c>
     </row>
-    <row r="21" spans="2:77" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
@@ -2798,192 +2800,192 @@
         <v>0.20024951922745537</v>
       </c>
       <c r="M21" s="8">
-        <f t="shared" ref="M21:N21" si="74">+M6/I6-1</f>
+        <f t="shared" ref="M21:N21" si="90">+M6/I6-1</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="N21" s="8">
-        <f t="shared" si="74"/>
+        <f t="shared" si="90"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="Q21" s="12">
-        <f>Q6/P6-1</f>
+        <f t="shared" ref="Q21:AA21" si="91">Q6/P6-1</f>
         <v>0.44833127389384875</v>
       </c>
       <c r="R21" s="12">
-        <f>R6/Q6-1</f>
+        <f t="shared" si="91"/>
         <v>0.48602694074717911</v>
       </c>
       <c r="S21" s="12">
-        <f>S6/R6-1</f>
+        <f t="shared" si="91"/>
         <v>0.34231805929919146</v>
       </c>
       <c r="T21" s="12">
-        <f>T6/S6-1</f>
+        <f t="shared" si="91"/>
         <v>0.19765461847389565</v>
       </c>
       <c r="U21" s="12">
-        <f>U6/T6-1</f>
+        <f t="shared" si="91"/>
         <v>0.19991415618209607</v>
       </c>
       <c r="V21" s="12">
-        <f>V6/U6-1</f>
+        <f t="shared" si="91"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="W21" s="12">
-        <f>W6/V6-1</f>
+        <f t="shared" si="91"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="X21" s="12">
-        <f>X6/W6-1</f>
+        <f t="shared" si="91"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="Y21" s="12">
-        <f>Y6/X6-1</f>
+        <f t="shared" si="91"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="Z21" s="12">
-        <f>Z6/Y6-1</f>
+        <f t="shared" si="91"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="AA21" s="12">
-        <f>AA6/Z6-1</f>
+        <f t="shared" si="91"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="AB21" s="12">
-        <f t="shared" ref="AB21:AF21" si="75">AB6/AA6-1</f>
+        <f t="shared" ref="AB21:AF21" si="92">AB6/AA6-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="AC21" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="92"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AD21" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="92"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AE21" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="92"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AF21" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="92"/>
         <v>0.10000000000000009</v>
       </c>
     </row>
-    <row r="22" spans="2:77" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="8">
-        <f>E8/E6</f>
+        <f t="shared" ref="E22:L22" si="93">E8/E6</f>
         <v>0.81221652687169921</v>
       </c>
       <c r="F22" s="8">
-        <f>F8/F6</f>
+        <f t="shared" si="93"/>
         <v>0.81109859577983023</v>
       </c>
       <c r="G22" s="8">
-        <f>G8/G6</f>
+        <f t="shared" si="93"/>
         <v>0.81672137814833101</v>
       </c>
       <c r="H22" s="8">
-        <f>H8/H6</f>
+        <f t="shared" si="93"/>
         <v>0.82863819022739338</v>
       </c>
       <c r="I22" s="8">
-        <f>I8/I6</f>
+        <f t="shared" si="93"/>
         <v>0.8289612504070335</v>
       </c>
       <c r="J22" s="8">
-        <f>J8/J6</f>
+        <f t="shared" si="93"/>
         <v>0.83131077814765997</v>
       </c>
       <c r="K22" s="8">
-        <f>K8/K6</f>
+        <f t="shared" si="93"/>
         <v>0.84322677921558886</v>
       </c>
       <c r="L22" s="8">
-        <f>L8/L6</f>
+        <f t="shared" si="93"/>
         <v>0.83819653019852858</v>
       </c>
       <c r="M22" s="8">
-        <f t="shared" ref="M22:AF22" si="76">M8/M6</f>
+        <f t="shared" ref="M22:AF22" si="94">M8/M6</f>
         <v>0.84</v>
       </c>
       <c r="N22" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="94"/>
         <v>0.84</v>
       </c>
       <c r="P22" s="8">
-        <f t="shared" ref="P22" si="77">P8/P6</f>
+        <f t="shared" ref="P22" si="95">P8/P6</f>
         <v>0.78847526062061657</v>
       </c>
       <c r="Q22" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="94"/>
         <v>0.78974521246980889</v>
       </c>
       <c r="R22" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="94"/>
         <v>0.78967654986522917</v>
       </c>
       <c r="S22" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="94"/>
         <v>0.80768674698795184</v>
       </c>
       <c r="T22" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="94"/>
         <v>0.82668770287308524</v>
       </c>
       <c r="U22" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="94"/>
         <v>0.84030578458814376</v>
       </c>
       <c r="V22" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="94"/>
         <v>0.85</v>
       </c>
       <c r="W22" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="94"/>
         <v>0.85</v>
       </c>
       <c r="X22" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="94"/>
         <v>0.85</v>
       </c>
       <c r="Y22" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="94"/>
         <v>0.85</v>
       </c>
       <c r="Z22" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="94"/>
         <v>0.84999999999999987</v>
       </c>
       <c r="AA22" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="94"/>
         <v>0.85</v>
       </c>
       <c r="AB22" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="94"/>
         <v>0.85</v>
       </c>
       <c r="AC22" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="94"/>
         <v>0.85</v>
       </c>
       <c r="AD22" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="94"/>
         <v>0.85</v>
       </c>
       <c r="AE22" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="94"/>
         <v>0.85</v>
       </c>
       <c r="AF22" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="94"/>
         <v>0.85</v>
       </c>
     </row>
-    <row r="24" spans="2:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:77" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
@@ -3028,51 +3030,51 @@
         <v>980.34288800000002</v>
       </c>
       <c r="V24" s="2">
-        <f>+U24+V17</f>
+        <f t="shared" ref="V24:AF24" si="96">+U24+V17</f>
         <v>963.99554451199992</v>
       </c>
       <c r="W24" s="2">
-        <f>+V24+W17</f>
+        <f t="shared" si="96"/>
         <v>999.80089462028775</v>
       </c>
       <c r="X24" s="2">
-        <f>+W24+X17</f>
+        <f t="shared" si="96"/>
         <v>1069.1594928871743</v>
       </c>
       <c r="Y24" s="2">
-        <f>+X24+Y17</f>
+        <f t="shared" si="96"/>
         <v>1201.1805493508662</v>
       </c>
       <c r="Z24" s="2">
-        <f>+Y24+Z17</f>
+        <f t="shared" si="96"/>
         <v>1410.3203165027464</v>
       </c>
       <c r="AA24" s="2">
-        <f>+Z24+AA17</f>
+        <f t="shared" si="96"/>
         <v>1713.6242845494305</v>
       </c>
       <c r="AB24" s="2">
-        <f>+AA24+AB17</f>
+        <f t="shared" si="96"/>
         <v>2069.8680224582881</v>
       </c>
       <c r="AC24" s="2">
-        <f>+AB24+AC17</f>
+        <f t="shared" si="96"/>
         <v>2517.8293480173984</v>
       </c>
       <c r="AD24" s="2">
-        <f>+AC24+AD17</f>
+        <f t="shared" si="96"/>
         <v>3070.6090602460349</v>
       </c>
       <c r="AE24" s="2">
-        <f>+AD24+AE17</f>
+        <f t="shared" si="96"/>
         <v>3742.8414751875816</v>
       </c>
       <c r="AF24" s="2">
-        <f>+AE24+AF17</f>
+        <f t="shared" si="96"/>
         <v>4550.8595971106806</v>
       </c>
     </row>
-    <row r="25" spans="2:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:77" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>37</v>
       </c>
@@ -3101,7 +3103,7 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="2:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:77" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>38</v>
       </c>
@@ -3130,7 +3132,7 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="2:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:77" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>39</v>
       </c>
@@ -3165,7 +3167,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="28" spans="2:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:77" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>40</v>
       </c>
@@ -3200,7 +3202,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="29" spans="2:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:77" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>41</v>
       </c>
@@ -3235,7 +3237,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="30" spans="2:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:77" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>38</v>
       </c>
@@ -3271,7 +3273,7 @@
         <v>4635.359768918921</v>
       </c>
     </row>
-    <row r="31" spans="2:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:77" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
@@ -3308,7 +3310,7 @@
         <v>15.344259764090406</v>
       </c>
     </row>
-    <row r="32" spans="2:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:77" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>43</v>
       </c>
@@ -3337,7 +3339,7 @@
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
     </row>
-    <row r="33" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>44</v>
       </c>
@@ -3366,7 +3368,7 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
     </row>
-    <row r="34" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>36</v>
       </c>
@@ -3375,33 +3377,33 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5">
-        <f>SUM(G24:G33)</f>
+        <f t="shared" ref="G34:L34" si="97">SUM(G24:G33)</f>
         <v>1390.8419999999999</v>
       </c>
       <c r="H34" s="5">
-        <f>SUM(H24:H33)</f>
+        <f t="shared" si="97"/>
         <v>1400.3070000000002</v>
       </c>
       <c r="I34" s="5">
-        <f>SUM(I24:I33)</f>
+        <f t="shared" si="97"/>
         <v>1456.7719999999999</v>
       </c>
       <c r="J34" s="5">
-        <f>SUM(J24:J33)</f>
+        <f t="shared" si="97"/>
         <v>1456.7719999999999</v>
       </c>
       <c r="K34" s="5">
-        <f>SUM(K24:K33)</f>
+        <f t="shared" si="97"/>
         <v>1465.4460000000004</v>
       </c>
       <c r="L34" s="5">
-        <f>SUM(L24:L33)</f>
+        <f t="shared" si="97"/>
         <v>1543.5840000000003</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>45</v>
       </c>
@@ -3424,7 +3426,7 @@
         <v>9.7710000000000008</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>46</v>
       </c>
@@ -3447,7 +3449,7 @@
         <v>69.245999999999995</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>47</v>
       </c>
@@ -3470,7 +3472,7 @@
         <v>287.62900000000002</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3493,7 +3495,7 @@
         <v>1.038</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>48</v>
       </c>
@@ -3516,7 +3518,7 @@
         <v>27.681000000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>49</v>
       </c>
@@ -3539,7 +3541,7 @@
         <v>33.119999999999997</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>50</v>
       </c>
@@ -3562,69 +3564,69 @@
         <v>1115.0989999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G43" s="5">
-        <f>SUM(G36:G42)</f>
+        <f t="shared" ref="G43:L43" si="98">SUM(G36:G42)</f>
         <v>1390.8420000000001</v>
       </c>
       <c r="H43" s="5">
-        <f>SUM(H36:H42)</f>
+        <f t="shared" si="98"/>
         <v>1400.307</v>
       </c>
       <c r="I43" s="5">
-        <f>SUM(I36:I42)</f>
+        <f t="shared" si="98"/>
         <v>1456.7719999999999</v>
       </c>
       <c r="J43" s="5">
-        <f>SUM(J36:J42)</f>
+        <f t="shared" si="98"/>
         <v>1456.7719999999999</v>
       </c>
       <c r="K43" s="5">
-        <f>SUM(K36:K42)</f>
+        <f t="shared" si="98"/>
         <v>1467.4460000000001</v>
       </c>
       <c r="L43" s="5">
-        <f>SUM(L36:L42)</f>
+        <f t="shared" si="98"/>
         <v>1543.5839999999998</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F45" s="5">
-        <f>+F17</f>
+        <f t="shared" ref="F45:L45" si="99">+F17</f>
         <v>-55.477000000000004</v>
       </c>
       <c r="G45" s="5">
-        <f>+G17</f>
+        <f t="shared" si="99"/>
         <v>-42.663999999999987</v>
       </c>
       <c r="H45" s="5">
-        <f>+H17</f>
+        <f t="shared" si="99"/>
         <v>-35.658000000000001</v>
       </c>
       <c r="I45" s="5">
-        <f>+I17</f>
+        <f t="shared" si="99"/>
         <v>-31.032999999999983</v>
       </c>
       <c r="J45" s="5">
-        <f>+J17</f>
+        <f t="shared" si="99"/>
         <v>-28.080999999999996</v>
       </c>
       <c r="K45" s="5">
-        <f>+K17</f>
+        <f t="shared" si="99"/>
         <v>-23.324999999999999</v>
       </c>
       <c r="L45" s="5">
-        <f>+L17</f>
+        <f t="shared" si="99"/>
         <v>-20.184000000000033</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>53</v>
       </c>
@@ -3653,7 +3655,7 @@
         <v>-20.184000000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>55</v>
       </c>
@@ -3682,7 +3684,7 @@
         <v>3.746</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>58</v>
       </c>
@@ -3711,7 +3713,7 @@
         <v>6.8860000000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3740,7 +3742,7 @@
         <v>2.419</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>56</v>
       </c>
@@ -3769,7 +3771,7 @@
         <v>55.139000000000003</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>57</v>
       </c>
@@ -3799,7 +3801,7 @@
         <v>-4.0979999999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>59</v>
       </c>
@@ -3828,7 +3830,7 @@
         <v>-14.278</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>44</v>
       </c>
@@ -3857,7 +3859,7 @@
         <v>-0.14500000000000002</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>60</v>
       </c>
@@ -3890,36 +3892,36 @@
         <v>6.8509999999999982</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F55" s="5">
-        <f>SUM(F46:F54)</f>
+        <f t="shared" ref="F55:L55" si="100">SUM(F46:F54)</f>
         <v>7.1670000000000007</v>
       </c>
       <c r="G55" s="5">
-        <f>SUM(G46:G54)</f>
+        <f t="shared" si="100"/>
         <v>11.504000000000001</v>
       </c>
       <c r="H55" s="5">
-        <f>SUM(H46:H54)</f>
+        <f t="shared" si="100"/>
         <v>19.894999999999989</v>
       </c>
       <c r="I55" s="5">
-        <f>SUM(I46:I54)</f>
+        <f t="shared" si="100"/>
         <v>26.129000000000019</v>
       </c>
       <c r="J55" s="5">
-        <f>SUM(J46:J54)</f>
+        <f t="shared" si="100"/>
         <v>30.890999999999998</v>
       </c>
       <c r="K55" s="5">
-        <f>SUM(K46:K54)</f>
+        <f t="shared" si="100"/>
         <v>40.619</v>
       </c>
       <c r="L55" s="5">
-        <f>SUM(L46:L54)</f>
+        <f t="shared" si="100"/>
         <v>36.335999999999999</v>
       </c>
     </row>
